--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,16 +6242,16 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,16 +6290,16 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,16 +6338,16 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -7336,12 +7336,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,12 +7384,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Prospección Minera Distrito Pleito</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
+          <t>Prospección Minera Distrito Pleito</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>600</v>
+        <v>7300</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -16064,7 +16064,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16074,16 +16074,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16112,7 +16112,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16122,16 +16122,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16160,7 +16160,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16175,11 +16175,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16188,12 +16188,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16208,7 +16208,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16223,11 +16223,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16236,12 +16236,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -20124,7 +20124,7 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -20624,7 +20624,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20639,11 +20639,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20652,12 +20652,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20672,7 +20672,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20687,11 +20687,11 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20700,12 +20700,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -21632,7 +21632,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -21642,16 +21642,16 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F444" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -21660,12 +21660,12 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -21680,7 +21680,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21690,16 +21690,16 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21708,12 +21708,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -21948,7 +21948,7 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -9188,7 +9188,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,16 +6242,16 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>219</v>
+        <v>217000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,16 +6290,16 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,16 +6338,16 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>217000</v>
+        <v>64000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>120000</v>
+        <v>219</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -7336,12 +7336,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,12 +7384,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -16064,7 +16064,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16074,16 +16074,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16112,7 +16112,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16122,16 +16122,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16160,7 +16160,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16175,11 +16175,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16188,12 +16188,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16208,7 +16208,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16223,11 +16223,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16236,12 +16236,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -20624,7 +20624,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20639,11 +20639,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20652,12 +20652,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20672,7 +20672,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20687,11 +20687,11 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20700,12 +20700,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -21632,7 +21632,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -21642,16 +21642,16 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F444" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -21660,12 +21660,12 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -21680,7 +21680,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21690,16 +21690,16 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21708,12 +21708,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,16 +6242,16 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,16 +6290,16 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,16 +6338,16 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -7336,12 +7336,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,12 +7384,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -16064,7 +16064,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16074,16 +16074,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16112,7 +16112,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16122,16 +16122,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16160,7 +16160,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16175,11 +16175,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16188,12 +16188,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16208,7 +16208,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16223,11 +16223,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16236,12 +16236,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -20624,7 +20624,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20639,11 +20639,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20652,12 +20652,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20672,7 +20672,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20687,11 +20687,11 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20700,12 +20700,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -21632,7 +21632,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -21642,16 +21642,16 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F444" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -21660,12 +21660,12 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -21680,7 +21680,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21690,16 +21690,16 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21708,12 +21708,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,16 +6242,16 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,16 +6290,16 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,16 +6338,16 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -7336,12 +7336,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,12 +7384,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -16064,7 +16064,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16074,16 +16074,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16112,7 +16112,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16122,16 +16122,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16160,7 +16160,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16175,11 +16175,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16188,12 +16188,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16208,7 +16208,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16223,11 +16223,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16236,12 +16236,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -20624,7 +20624,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20639,11 +20639,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20652,12 +20652,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20672,7 +20672,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20687,11 +20687,11 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20700,12 +20700,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -21632,7 +21632,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -21642,16 +21642,16 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F444" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -21660,12 +21660,12 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -21680,7 +21680,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21690,16 +21690,16 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21708,12 +21708,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,16 +6338,16 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>219</v>
+        <v>217000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>217000</v>
+        <v>64000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,16 +6482,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>120000</v>
+        <v>219</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -7432,12 +7432,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,12 +7480,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -16160,7 +16160,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16170,16 +16170,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16208,7 +16208,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16218,16 +16218,16 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16256,7 +16256,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16271,11 +16271,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16284,12 +16284,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16319,11 +16319,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16332,12 +16332,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -20720,7 +20720,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20735,11 +20735,11 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20748,12 +20748,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20768,7 +20768,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20783,11 +20783,11 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20796,12 +20796,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -21728,7 +21728,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21738,16 +21738,16 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21756,12 +21756,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -21776,7 +21776,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21786,16 +21786,16 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21804,12 +21804,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,16 +6290,16 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,16 +6338,16 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -7384,12 +7384,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,12 +7432,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -16112,7 +16112,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16122,16 +16122,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16160,7 +16160,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16170,16 +16170,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16208,7 +16208,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16223,11 +16223,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16236,12 +16236,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16256,7 +16256,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16271,11 +16271,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16284,12 +16284,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -20672,7 +20672,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20687,11 +20687,11 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20700,12 +20700,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20720,7 +20720,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20735,11 +20735,11 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20748,12 +20748,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -21680,7 +21680,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21690,16 +21690,16 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21708,12 +21708,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -21728,7 +21728,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21738,16 +21738,16 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21756,12 +21756,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,16 +6290,16 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>219</v>
+        <v>217000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,16 +6338,16 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>217000</v>
+        <v>64000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>120000</v>
+        <v>219</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -7384,12 +7384,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,12 +7432,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -16112,7 +16112,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16122,16 +16122,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16160,7 +16160,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16170,16 +16170,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16208,7 +16208,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16223,11 +16223,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16236,12 +16236,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16256,7 +16256,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16271,11 +16271,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16284,12 +16284,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -20672,7 +20672,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20687,11 +20687,11 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20700,12 +20700,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20720,7 +20720,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20735,11 +20735,11 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20748,12 +20748,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -21680,7 +21680,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21690,16 +21690,16 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21708,12 +21708,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -21728,7 +21728,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21738,16 +21738,16 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21756,12 +21756,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,16 +6338,16 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>219</v>
+        <v>217000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>217000</v>
+        <v>64000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,16 +6482,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>120000</v>
+        <v>219</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -7432,12 +7432,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,12 +7480,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -16160,7 +16160,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16170,16 +16170,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16208,7 +16208,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16218,16 +16218,16 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -20720,7 +20720,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20735,11 +20735,11 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20748,12 +20748,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20768,7 +20768,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20783,11 +20783,11 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20796,12 +20796,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -21728,7 +21728,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21738,16 +21738,16 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21756,12 +21756,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -21776,7 +21776,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21786,16 +21786,16 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21804,12 +21804,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,16 +6338,16 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,16 +6482,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -7432,12 +7432,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,12 +7480,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -16160,7 +16160,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16170,16 +16170,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16208,7 +16208,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16218,16 +16218,16 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -20720,7 +20720,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20735,11 +20735,11 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20748,12 +20748,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20768,7 +20768,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20783,11 +20783,11 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20796,12 +20796,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -21728,7 +21728,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21738,16 +21738,16 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21756,12 +21756,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -21776,7 +21776,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21786,16 +21786,16 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21804,12 +21804,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>219</v>
+        <v>217000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,16 +6482,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>217000</v>
+        <v>64000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>120000</v>
+        <v>219</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -7480,12 +7480,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,12 +7528,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -16208,7 +16208,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16218,16 +16218,16 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16256,7 +16256,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16266,16 +16266,16 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16319,11 +16319,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16332,12 +16332,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16352,7 +16352,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16367,11 +16367,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16380,12 +16380,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -20768,7 +20768,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20783,11 +20783,11 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20796,12 +20796,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20831,11 +20831,11 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20844,12 +20844,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -21776,7 +21776,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21786,16 +21786,16 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21804,12 +21804,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -21824,7 +21824,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21834,16 +21834,16 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F448" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -21852,12 +21852,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,16 +6482,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -7480,12 +7480,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,12 +7528,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -16208,7 +16208,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16218,16 +16218,16 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16256,7 +16256,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16266,16 +16266,16 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16319,11 +16319,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16332,12 +16332,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16352,7 +16352,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16367,11 +16367,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16380,12 +16380,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -20768,7 +20768,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20783,11 +20783,11 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20796,12 +20796,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20831,11 +20831,11 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20844,12 +20844,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -21776,7 +21776,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21786,16 +21786,16 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21804,12 +21804,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -21824,7 +21824,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21834,16 +21834,16 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F448" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -21852,12 +21852,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,16 +6482,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -7480,12 +7480,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,12 +7528,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -16208,7 +16208,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16218,16 +16218,16 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16256,7 +16256,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16266,16 +16266,16 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16319,11 +16319,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16332,12 +16332,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16352,7 +16352,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16367,11 +16367,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16380,12 +16380,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -20768,7 +20768,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20783,11 +20783,11 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20796,12 +20796,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20831,11 +20831,11 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20844,12 +20844,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -21776,7 +21776,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21786,16 +21786,16 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21804,12 +21804,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -21824,7 +21824,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21834,16 +21834,16 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F448" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -21852,12 +21852,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,16 +6482,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,16 +6578,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -7528,12 +7528,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -16256,7 +16256,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16266,16 +16266,16 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16314,16 +16314,16 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16352,7 +16352,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16367,11 +16367,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16380,12 +16380,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16400,7 +16400,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16415,11 +16415,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16428,12 +16428,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20831,11 +20831,11 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20844,12 +20844,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20864,7 +20864,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20879,11 +20879,11 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20892,12 +20892,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -21824,7 +21824,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21834,16 +21834,16 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F448" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -21852,12 +21852,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -21872,7 +21872,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21882,16 +21882,16 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F449" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G449" t="inlineStr">
         <is>
@@ -21900,12 +21900,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>219</v>
+        <v>217000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,16 +6482,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>217000</v>
+        <v>64000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,16 +6578,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>120000</v>
+        <v>219</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -7528,12 +7528,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -16256,7 +16256,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16266,16 +16266,16 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16314,16 +16314,16 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16352,7 +16352,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16367,11 +16367,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16380,12 +16380,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16400,7 +16400,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16415,11 +16415,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16428,12 +16428,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20831,11 +20831,11 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20844,12 +20844,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20864,7 +20864,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20879,11 +20879,11 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20892,12 +20892,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -21824,7 +21824,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21834,16 +21834,16 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F448" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -21852,12 +21852,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -21872,7 +21872,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21882,16 +21882,16 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F449" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G449" t="inlineStr">
         <is>
@@ -21900,12 +21900,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/04/2022</t>
+          <t>29/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -11287,7 +11287,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -11479,7 +11479,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -18527,7 +18527,7 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F379" t="n">
@@ -19343,7 +19343,7 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F396" t="n">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,16 +6482,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,16 +6578,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -7528,12 +7528,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -16256,7 +16256,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16266,16 +16266,16 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16314,16 +16314,16 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16352,7 +16352,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16367,11 +16367,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16380,12 +16380,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16400,7 +16400,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16415,11 +16415,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16428,12 +16428,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20831,11 +20831,11 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20844,12 +20844,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20864,7 +20864,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20879,11 +20879,11 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20892,12 +20892,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -21824,7 +21824,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21834,16 +21834,16 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F448" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -21852,12 +21852,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -21872,7 +21872,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21882,16 +21882,16 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F449" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G449" t="inlineStr">
         <is>
@@ -21900,12 +21900,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>219</v>
+        <v>217000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,16 +6482,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>217000</v>
+        <v>64000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,16 +6578,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>120000</v>
+        <v>219</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -7528,12 +7528,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -16256,7 +16256,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16266,16 +16266,16 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16314,16 +16314,16 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20831,11 +20831,11 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20844,12 +20844,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20864,7 +20864,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20879,11 +20879,11 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20892,12 +20892,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -21824,7 +21824,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21834,16 +21834,16 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F448" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -21852,12 +21852,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -21872,7 +21872,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21882,16 +21882,16 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F449" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G449" t="inlineStr">
         <is>
@@ -21900,12 +21900,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,16 +6482,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,16 +6578,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -7528,12 +7528,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -16256,7 +16256,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16266,16 +16266,16 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16314,16 +16314,16 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20831,11 +20831,11 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20844,12 +20844,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20864,7 +20864,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20879,11 +20879,11 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20892,12 +20892,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -21824,7 +21824,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21834,16 +21834,16 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F448" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -21852,12 +21852,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -21872,7 +21872,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21882,16 +21882,16 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F449" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G449" t="inlineStr">
         <is>
@@ -21900,12 +21900,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -20687,7 +20687,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Compañia General de Electricidad S.A.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -16223,7 +16223,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F331" t="n">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,16 +6482,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>219</v>
+        <v>217000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,16 +6578,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>217000</v>
+        <v>64000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>120000</v>
+        <v>219</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,12 +7624,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16314,16 +16314,16 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16352,7 +16352,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16362,16 +16362,16 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16400,7 +16400,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16415,11 +16415,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16428,12 +16428,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16463,11 +16463,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16476,12 +16476,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -20864,7 +20864,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20879,11 +20879,11 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20892,12 +20892,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20912,7 +20912,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20927,11 +20927,11 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20940,12 +20940,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -21872,7 +21872,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21882,16 +21882,16 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F449" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G449" t="inlineStr">
         <is>
@@ -21900,12 +21900,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -21920,7 +21920,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21930,16 +21930,16 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -21948,12 +21948,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2022</t>
+          <t>21/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,16 +6482,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,16 +6578,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,12 +7624,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16314,16 +16314,16 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16352,7 +16352,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16362,16 +16362,16 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16400,7 +16400,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16415,11 +16415,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16428,12 +16428,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16463,11 +16463,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16476,12 +16476,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -20864,7 +20864,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20879,11 +20879,11 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20892,12 +20892,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20912,7 +20912,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20927,11 +20927,11 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20940,12 +20940,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -21872,7 +21872,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21882,16 +21882,16 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F449" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G449" t="inlineStr">
         <is>
@@ -21900,12 +21900,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -21920,7 +21920,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21930,16 +21930,16 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -21948,12 +21948,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,16 +6482,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,16 +6578,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,12 +7624,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16314,16 +16314,16 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16352,7 +16352,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16362,16 +16362,16 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16400,7 +16400,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16415,11 +16415,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16428,12 +16428,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16463,11 +16463,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16476,12 +16476,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -20864,7 +20864,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20879,11 +20879,11 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20892,12 +20892,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20912,7 +20912,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20927,11 +20927,11 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20940,12 +20940,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -21872,7 +21872,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21882,16 +21882,16 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F449" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G449" t="inlineStr">
         <is>
@@ -21900,12 +21900,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -21920,7 +21920,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21930,16 +21930,16 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -21948,12 +21948,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -2839,7 +2839,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sol de Vallenar SPA</t>
+          <t>El Sol de Vallenar SPA</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sol de Vallenar SPA</t>
+          <t>El Sol de Vallenar SPA</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Sol de Vallenar SPA</t>
+          <t>El Sol de Vallenar SPA</t>
         </is>
       </c>
       <c r="F112" t="n">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,16 +6578,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -7624,12 +7624,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,12 +7672,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -16352,7 +16352,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16362,16 +16362,16 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16400,7 +16400,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16410,16 +16410,16 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16463,11 +16463,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16476,12 +16476,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16496,7 +16496,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16511,11 +16511,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16524,12 +16524,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -20912,7 +20912,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20927,11 +20927,11 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20940,12 +20940,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20960,7 +20960,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20975,11 +20975,11 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20988,12 +20988,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21920,7 +21920,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21930,16 +21930,16 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -21948,12 +21948,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21968,7 +21968,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21978,16 +21978,16 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F451" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -21996,12 +21996,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>219</v>
+        <v>217000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,16 +6578,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>217000</v>
+        <v>64000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>120000</v>
+        <v>219</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -7624,12 +7624,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,12 +7672,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -16352,7 +16352,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16362,16 +16362,16 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16400,7 +16400,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16410,16 +16410,16 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16463,11 +16463,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16476,12 +16476,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16496,7 +16496,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16511,11 +16511,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16524,12 +16524,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -20912,7 +20912,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20927,11 +20927,11 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20940,12 +20940,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20960,7 +20960,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20975,11 +20975,11 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20988,12 +20988,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21920,7 +21920,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21930,16 +21930,16 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -21948,12 +21948,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21968,7 +21968,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21978,16 +21978,16 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F451" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -21996,12 +21996,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09/11/2022</t>
+          <t>16/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -13879,7 +13879,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F282" t="n">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,16 +6578,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>219</v>
+        <v>217000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>217000</v>
+        <v>64000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>120000</v>
+        <v>219</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -7672,12 +7672,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,12 +7720,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -16400,7 +16400,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16410,16 +16410,16 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16458,16 +16458,16 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16496,7 +16496,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16511,11 +16511,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16524,12 +16524,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16544,7 +16544,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16559,11 +16559,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16572,12 +16572,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -20960,7 +20960,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20975,11 +20975,11 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20988,12 +20988,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21008,7 +21008,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21023,11 +21023,11 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21036,12 +21036,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21968,7 +21968,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21978,16 +21978,16 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F451" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -21996,12 +21996,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22016,7 +22016,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22026,16 +22026,16 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F452" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G452" t="inlineStr">
         <is>
@@ -22044,12 +22044,12 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,16 +6578,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -7672,12 +7672,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,12 +7720,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -16400,7 +16400,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16410,16 +16410,16 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16458,16 +16458,16 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16496,7 +16496,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16511,11 +16511,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16524,12 +16524,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16544,7 +16544,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16559,11 +16559,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16572,12 +16572,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -20960,7 +20960,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20975,11 +20975,11 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20988,12 +20988,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21008,7 +21008,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21023,11 +21023,11 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21036,12 +21036,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21968,7 +21968,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21978,16 +21978,16 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F451" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -21996,12 +21996,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22016,7 +22016,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22026,16 +22026,16 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F452" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G452" t="inlineStr">
         <is>
@@ -22044,12 +22044,12 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,16 +6578,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -7672,12 +7672,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,12 +7720,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -16400,7 +16400,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16410,16 +16410,16 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16458,16 +16458,16 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16496,7 +16496,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16511,11 +16511,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16524,12 +16524,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16544,7 +16544,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16559,11 +16559,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16572,12 +16572,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -20960,7 +20960,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20975,11 +20975,11 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20988,12 +20988,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21008,7 +21008,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21023,11 +21023,11 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21036,12 +21036,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21968,7 +21968,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21978,16 +21978,16 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F451" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -21996,12 +21996,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22016,7 +22016,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22026,16 +22026,16 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F452" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G452" t="inlineStr">
         <is>
@@ -22044,12 +22044,12 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>27/12/2022</t>
+          <t>04/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico y PLS entre la región de Arica y Parinacota y Valparaíso</t>
+          <t>Transporte terrestre de ácido sulfúrico entre la región de Arica y Parinacota y Atacama</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>219</v>
+        <v>217000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>217000</v>
+        <v>64000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>120000</v>
+        <v>219</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -7720,12 +7720,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,12 +7768,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16458,16 +16458,16 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16496,7 +16496,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16506,16 +16506,16 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16544,7 +16544,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16559,11 +16559,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16572,12 +16572,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16607,11 +16607,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16620,12 +16620,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -21008,7 +21008,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21023,11 +21023,11 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21036,12 +21036,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21056,7 +21056,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21071,11 +21071,11 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21084,12 +21084,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -22016,7 +22016,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22026,16 +22026,16 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F452" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G452" t="inlineStr">
         <is>
@@ -22044,12 +22044,12 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22064,7 +22064,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22074,16 +22074,16 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F453" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G453" t="inlineStr">
         <is>
@@ -22092,12 +22092,12 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -7720,12 +7720,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,12 +7768,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16458,16 +16458,16 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16496,7 +16496,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16506,16 +16506,16 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16544,7 +16544,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16559,11 +16559,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16572,12 +16572,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16607,11 +16607,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16620,12 +16620,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -21008,7 +21008,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21023,11 +21023,11 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21036,12 +21036,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21056,7 +21056,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21071,11 +21071,11 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21084,12 +21084,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -22016,7 +22016,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22026,16 +22026,16 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F452" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G452" t="inlineStr">
         <is>
@@ -22044,12 +22044,12 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22064,7 +22064,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22074,16 +22074,16 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F453" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G453" t="inlineStr">
         <is>
@@ -22092,12 +22092,12 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30/01/2023</t>
+          <t>06/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>219</v>
+        <v>217000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>217000</v>
+        <v>64000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>120000</v>
+        <v>219</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -7720,12 +7720,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,12 +7768,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16458,16 +16458,16 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16496,7 +16496,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16506,16 +16506,16 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16544,7 +16544,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16559,11 +16559,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16572,12 +16572,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16607,11 +16607,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16620,12 +16620,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -21008,7 +21008,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21023,11 +21023,11 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21036,12 +21036,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21056,7 +21056,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21071,11 +21071,11 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21084,12 +21084,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -22016,7 +22016,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22026,16 +22026,16 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F452" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G452" t="inlineStr">
         <is>
@@ -22044,12 +22044,12 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22064,7 +22064,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22074,16 +22074,16 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F453" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G453" t="inlineStr">
         <is>
@@ -22092,12 +22092,12 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>219</v>
+        <v>217000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>217000</v>
+        <v>64000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>120000</v>
+        <v>219</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -7768,12 +7768,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,12 +7816,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
+          <t>Prospección Minera Distrito Pleito</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,16 +10658,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>600</v>
+        <v>7300</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Prospección Minera Distrito Pleito</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,16 +10706,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -16496,7 +16496,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16506,16 +16506,16 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16544,7 +16544,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16554,16 +16554,16 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16607,11 +16607,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16620,12 +16620,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16655,11 +16655,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16668,12 +16668,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -21056,7 +21056,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21071,11 +21071,11 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21084,12 +21084,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21104,7 +21104,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21119,11 +21119,11 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21132,12 +21132,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -22064,7 +22064,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22074,16 +22074,16 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F453" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G453" t="inlineStr">
         <is>
@@ -22092,12 +22092,12 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22112,7 +22112,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22122,16 +22122,16 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F454" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -22140,12 +22140,12 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -7768,12 +7768,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,12 +7816,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Prospección Minera Distrito Pleito</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,16 +10658,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
+          <t>Prospección Minera Distrito Pleito</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,16 +10706,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>600</v>
+        <v>7300</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -16496,7 +16496,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16506,16 +16506,16 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16544,7 +16544,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16554,16 +16554,16 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16607,11 +16607,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16620,12 +16620,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16655,11 +16655,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16668,12 +16668,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -21056,7 +21056,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21071,11 +21071,11 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21084,12 +21084,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21104,7 +21104,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21119,11 +21119,11 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21132,12 +21132,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -22064,7 +22064,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22074,16 +22074,16 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F453" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G453" t="inlineStr">
         <is>
@@ -22092,12 +22092,12 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22112,7 +22112,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22122,16 +22122,16 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F454" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -22140,12 +22140,12 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/02/2023</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>219</v>
+        <v>217000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>217000</v>
+        <v>64000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>120000</v>
+        <v>219</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -7768,12 +7768,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,12 +7816,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
+          <t>Prospección Minera Distrito Pleito</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,16 +10658,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>600</v>
+        <v>7300</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Prospección Minera Distrito Pleito</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,16 +10706,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -16496,7 +16496,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16506,16 +16506,16 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16544,7 +16544,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16554,16 +16554,16 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16607,11 +16607,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16620,12 +16620,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16655,11 +16655,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16668,12 +16668,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -21056,7 +21056,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21071,11 +21071,11 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21084,12 +21084,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21104,7 +21104,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21119,11 +21119,11 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21132,12 +21132,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -22064,7 +22064,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22074,16 +22074,16 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F453" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G453" t="inlineStr">
         <is>
@@ -22092,12 +22092,12 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22112,7 +22112,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22122,16 +22122,16 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F454" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -22140,12 +22140,12 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -4312,12 +4312,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE MINERALES DE HIERRO EN DISTRITO PLEITO</t>
+          <t>Proyecto Solar Fotovoltaico Sol del Pacifico</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Alto del Carmen Solar SpA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130455713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130456333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,12 +4360,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Proyecto Solar Fotovoltaico Sol del Pacifico</t>
+          <t>EXTRACCIÓN DE MINERALES DE HIERRO EN DISTRITO PLEITO</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Alto del Carmen Solar SpA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130456333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130455713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>219</v>
+        <v>217000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>217000</v>
+        <v>64000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>120000</v>
+        <v>219</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -7816,12 +7816,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,12 +7864,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
+          <t>Prospección Minera Distrito Pleito</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,16 +10706,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>600</v>
+        <v>7300</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Prospección Minera Distrito Pleito</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10754,16 +10754,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -16544,7 +16544,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16554,16 +16554,16 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16602,16 +16602,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16655,11 +16655,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16668,12 +16668,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16688,7 +16688,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16703,11 +16703,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16716,12 +16716,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -21104,7 +21104,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21119,11 +21119,11 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21132,12 +21132,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21152,7 +21152,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21167,11 +21167,11 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21180,12 +21180,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -22112,7 +22112,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22122,16 +22122,16 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F454" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -22140,12 +22140,12 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22160,7 +22160,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22170,16 +22170,16 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22188,12 +22188,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -4312,12 +4312,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Proyecto Solar Fotovoltaico Sol del Pacifico</t>
+          <t>EXTRACCIÓN DE MINERALES DE HIERRO EN DISTRITO PLEITO</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Alto del Carmen Solar SpA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130456333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130455713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,12 +4360,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE MINERALES DE HIERRO EN DISTRITO PLEITO</t>
+          <t>Proyecto Solar Fotovoltaico Sol del Pacifico</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Alto del Carmen Solar SpA</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130455713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130456333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -7816,12 +7816,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,12 +7864,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Prospección Minera Distrito Pleito</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,16 +10706,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
+          <t>Prospección Minera Distrito Pleito</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10754,16 +10754,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>600</v>
+        <v>7300</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -16544,7 +16544,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16554,16 +16554,16 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16602,16 +16602,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16655,11 +16655,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16668,12 +16668,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16688,7 +16688,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16703,11 +16703,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16716,12 +16716,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -21104,7 +21104,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21119,11 +21119,11 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21132,12 +21132,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21152,7 +21152,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21167,11 +21167,11 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21180,12 +21180,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -22112,7 +22112,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22122,16 +22122,16 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F454" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -22140,12 +22140,12 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22160,7 +22160,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22170,16 +22170,16 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22188,12 +22188,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque solar fotovoltaico Ceibo</t>
+          <t>Recuperación de Acopios de la faena Algarrobo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Energía Renovable Violeta SpA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>220000</v>
+        <v>17202</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>02/03/2023</t>
+          <t>03/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158749000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158698527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Recuperación de Acopios de la faena Algarrobo</t>
+          <t>Parque solar fotovoltaico Ceibo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Energía Renovable Violeta SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>17202</v>
+        <v>220000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/02/2023</t>
+          <t>02/03/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158698527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158749000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>219</v>
+        <v>217000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>217000</v>
+        <v>64000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>120000</v>
+        <v>219</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7864,12 +7864,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,12 +7912,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
+          <t>Prospección Minera Distrito Pleito</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10754,16 +10754,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>600</v>
+        <v>7300</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Prospección Minera Distrito Pleito</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16602,16 +16602,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16650,16 +16650,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16688,7 +16688,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16703,11 +16703,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16716,12 +16716,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16751,11 +16751,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16764,12 +16764,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -21152,7 +21152,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21167,11 +21167,11 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21180,12 +21180,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21200,7 +21200,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21215,11 +21215,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21228,12 +21228,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -22160,7 +22160,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22170,16 +22170,16 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22188,12 +22188,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22208,7 +22208,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22218,16 +22218,16 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22236,12 +22236,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7864,12 +7864,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,12 +7912,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Prospección Minera Distrito Pleito</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10754,16 +10754,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
+          <t>Prospección Minera Distrito Pleito</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>600</v>
+        <v>7300</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16602,16 +16602,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16650,16 +16650,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16688,7 +16688,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16703,11 +16703,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16716,12 +16716,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16751,11 +16751,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16764,12 +16764,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -21152,7 +21152,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21167,11 +21167,11 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21180,12 +21180,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21200,7 +21200,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21215,11 +21215,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21228,12 +21228,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -22160,7 +22160,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22170,16 +22170,16 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22188,12 +22188,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22208,7 +22208,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22218,16 +22218,16 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22236,12 +22236,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>219</v>
+        <v>217000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>217000</v>
+        <v>64000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>120000</v>
+        <v>219</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7864,12 +7864,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,12 +7912,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
+          <t>Prospección Minera Distrito Pleito</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10754,16 +10754,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>600</v>
+        <v>7300</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Prospección Minera Distrito Pleito</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16602,16 +16602,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16650,16 +16650,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16688,7 +16688,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16703,11 +16703,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16716,12 +16716,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16751,11 +16751,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16764,12 +16764,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -21152,7 +21152,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21167,11 +21167,11 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21180,12 +21180,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21200,7 +21200,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21215,11 +21215,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21228,12 +21228,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -22160,7 +22160,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22170,16 +22170,16 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22188,12 +22188,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22208,7 +22208,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22218,16 +22218,16 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22236,12 +22236,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Recuperación de Acopios de la faena Algarrobo</t>
+          <t>Parque solar fotovoltaico Ceibo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Energía Renovable Violeta SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>17202</v>
+        <v>220000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/03/2023</t>
+          <t>09/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158698527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158749000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque solar fotovoltaico Ceibo</t>
+          <t>Recuperación de Acopios de la faena Algarrobo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Energía Renovable Violeta SpA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>220000</v>
+        <v>17202</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>02/03/2023</t>
+          <t>03/03/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158749000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158698527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ORION POWER S.A.</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F25" t="n">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7864,12 +7864,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,12 +7912,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Prospección Minera Distrito Pleito</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10754,16 +10754,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
+          <t>Prospección Minera Distrito Pleito</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>600</v>
+        <v>7300</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16602,16 +16602,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16650,16 +16650,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16688,7 +16688,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16703,11 +16703,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16716,12 +16716,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16751,11 +16751,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16764,12 +16764,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -21152,7 +21152,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21167,11 +21167,11 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21180,12 +21180,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21200,7 +21200,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21215,11 +21215,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21228,12 +21228,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -22160,7 +22160,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22170,16 +22170,16 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22188,12 +22188,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22208,7 +22208,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22218,16 +22218,16 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22236,12 +22236,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>219</v>
+        <v>217000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>217000</v>
+        <v>64000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>120000</v>
+        <v>219</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7864,12 +7864,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,12 +7912,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
+          <t>Prospección Minera Distrito Pleito</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10754,16 +10754,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>600</v>
+        <v>7300</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Prospección Minera Distrito Pleito</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -15015,7 +15015,11 @@
           <t>Estudio de Impacto Ambiental Proyecto El Morro</t>
         </is>
       </c>
-      <c r="C306" t="inlineStr"/>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
       <c r="D306" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -16592,7 +16596,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16602,16 +16606,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16625,7 +16629,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16640,7 +16644,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16650,16 +16654,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16673,7 +16677,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16688,7 +16692,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16703,11 +16707,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16716,12 +16720,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16736,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16751,11 +16755,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16764,12 +16768,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -21152,7 +21156,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21167,11 +21171,11 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21180,12 +21184,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21200,7 +21204,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21215,11 +21219,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21228,12 +21232,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -22160,7 +22164,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22170,16 +22174,16 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22188,12 +22192,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22208,7 +22212,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22218,16 +22222,16 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22236,12 +22240,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7864,12 +7864,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,12 +7912,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Prospección Minera Distrito Pleito</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10754,16 +10754,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
+          <t>Prospección Minera Distrito Pleito</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>600</v>
+        <v>7300</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -16596,7 +16596,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16606,16 +16606,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16644,7 +16644,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16654,16 +16654,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16707,11 +16707,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16720,12 +16720,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16755,11 +16755,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16768,12 +16768,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21171,11 +21171,11 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21184,12 +21184,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21204,7 +21204,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21219,11 +21219,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21232,12 +21232,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -22164,7 +22164,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22174,16 +22174,16 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22192,12 +22192,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22212,7 +22212,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22222,16 +22222,16 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22240,12 +22240,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>219</v>
+        <v>217000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>217000</v>
+        <v>64000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>120000</v>
+        <v>219</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7864,12 +7864,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,12 +7912,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
+          <t>Prospección Minera Distrito Pleito</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10754,16 +10754,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>600</v>
+        <v>7300</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Prospección Minera Distrito Pleito</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -16596,7 +16596,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16606,16 +16606,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16644,7 +16644,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16654,16 +16654,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16707,11 +16707,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16720,12 +16720,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16755,11 +16755,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16768,12 +16768,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21171,11 +21171,11 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21184,12 +21184,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21204,7 +21204,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21219,11 +21219,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21232,12 +21232,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -22164,7 +22164,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22174,16 +22174,16 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22192,12 +22192,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22212,7 +22212,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22222,16 +22222,16 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22240,12 +22240,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -4360,12 +4360,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE MINERALES DE HIERRO EN DISTRITO PLEITO</t>
+          <t>Proyecto Solar Fotovoltaico Sol del Pacifico</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Alto del Carmen Solar SpA</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130455713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130456333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,12 +4408,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Proyecto Solar Fotovoltaico Sol del Pacifico</t>
+          <t>EXTRACCIÓN DE MINERALES DE HIERRO EN DISTRITO PLEITO</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Alto del Carmen Solar SpA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130456333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130455713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>219</v>
+        <v>217000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>217000</v>
+        <v>64000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>120000</v>
+        <v>219</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7864,12 +7864,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,12 +7912,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -16596,7 +16596,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16606,16 +16606,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16644,7 +16644,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16654,16 +16654,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16707,11 +16707,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16720,12 +16720,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16755,11 +16755,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16768,12 +16768,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21171,11 +21171,11 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21184,12 +21184,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21204,7 +21204,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21219,11 +21219,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21232,12 +21232,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -22164,7 +22164,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22174,16 +22174,16 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22192,12 +22192,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22212,7 +22212,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22222,16 +22222,16 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22240,12 +22240,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -4360,12 +4360,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Proyecto Solar Fotovoltaico Sol del Pacifico</t>
+          <t>EXTRACCIÓN DE MINERALES DE HIERRO EN DISTRITO PLEITO</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Alto del Carmen Solar SpA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130456333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130455713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,12 +4408,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE MINERALES DE HIERRO EN DISTRITO PLEITO</t>
+          <t>Proyecto Solar Fotovoltaico Sol del Pacifico</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Alto del Carmen Solar SpA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130455713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130456333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7864,12 +7864,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,12 +7912,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -16596,7 +16596,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16606,16 +16606,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16644,7 +16644,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16654,16 +16654,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16707,11 +16707,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16720,12 +16720,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16755,11 +16755,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16768,12 +16768,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21171,11 +21171,11 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21184,12 +21184,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21204,7 +21204,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21219,11 +21219,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21232,12 +21232,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -22164,7 +22164,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22174,16 +22174,16 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22192,12 +22192,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22212,7 +22212,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22222,16 +22222,16 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22240,12 +22240,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>219</v>
+        <v>217000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>217000</v>
+        <v>64000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>120000</v>
+        <v>219</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7912,12 +7912,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,12 +7960,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
+          <t>Prospección Minera Distrito Pleito</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>600</v>
+        <v>7300</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Prospección Minera Distrito Pleito</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -16644,7 +16644,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16654,16 +16654,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16702,16 +16702,16 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16755,11 +16755,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16768,12 +16768,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16816,12 +16816,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -21204,7 +21204,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21219,11 +21219,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21232,12 +21232,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21252,7 +21252,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21267,11 +21267,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21280,12 +21280,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -22212,7 +22212,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22222,16 +22222,16 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22240,12 +22240,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22260,7 +22260,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22270,16 +22270,16 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22288,12 +22288,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7912,12 +7912,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,12 +7960,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Prospección Minera Distrito Pleito</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
+          <t>Prospección Minera Distrito Pleito</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>600</v>
+        <v>7300</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -16644,7 +16644,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16654,16 +16654,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16702,16 +16702,16 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16755,11 +16755,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16768,12 +16768,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16816,12 +16816,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -21204,7 +21204,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21219,11 +21219,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21232,12 +21232,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21252,7 +21252,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21267,11 +21267,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21280,12 +21280,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -22212,7 +22212,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22222,16 +22222,16 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22240,12 +22240,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22260,7 +22260,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22270,16 +22270,16 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22288,12 +22288,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -4408,12 +4408,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE MINERALES DE HIERRO EN DISTRITO PLEITO</t>
+          <t>Proyecto Solar Fotovoltaico Sol del Pacifico</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Alto del Carmen Solar SpA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130455713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130456333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,12 +4456,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Proyecto Solar Fotovoltaico Sol del Pacifico</t>
+          <t>EXTRACCIÓN DE MINERALES DE HIERRO EN DISTRITO PLEITO</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Alto del Carmen Solar SpA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130456333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130455713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>219</v>
+        <v>217000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>217000</v>
+        <v>64000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>120000</v>
+        <v>219</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7912,12 +7912,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,12 +7960,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -16644,7 +16644,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16654,16 +16654,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16702,16 +16702,16 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16755,11 +16755,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16768,12 +16768,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16816,12 +16816,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -21204,7 +21204,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21219,11 +21219,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21232,12 +21232,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21252,7 +21252,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21267,11 +21267,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21280,12 +21280,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -22212,7 +22212,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22222,16 +22222,16 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22240,12 +22240,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22260,7 +22260,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22270,16 +22270,16 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22288,12 +22288,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -4408,12 +4408,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Proyecto Solar Fotovoltaico Sol del Pacifico</t>
+          <t>EXTRACCIÓN DE MINERALES DE HIERRO EN DISTRITO PLEITO</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Alto del Carmen Solar SpA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130456333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130455713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,12 +4456,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE MINERALES DE HIERRO EN DISTRITO PLEITO</t>
+          <t>Proyecto Solar Fotovoltaico Sol del Pacifico</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Alto del Carmen Solar SpA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130455713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130456333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7912,12 +7912,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,12 +7960,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -16644,7 +16644,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16654,16 +16654,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16702,16 +16702,16 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16755,11 +16755,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16768,12 +16768,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16816,12 +16816,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -21204,7 +21204,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21219,11 +21219,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21232,12 +21232,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21252,7 +21252,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21267,11 +21267,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21280,12 +21280,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -22212,7 +22212,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22222,16 +22222,16 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22240,12 +22240,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22260,7 +22260,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22270,16 +22270,16 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22288,12 +22288,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>219</v>
+        <v>217000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>217000</v>
+        <v>64000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>120000</v>
+        <v>219</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7960,12 +7960,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,12 +8008,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
+          <t>Prospección Minera Distrito Pleito</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>600</v>
+        <v>7300</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Prospección Minera Distrito Pleito</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10898,16 +10898,16 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12391,11 +12391,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16702,16 +16702,16 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16750,16 +16750,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16816,12 +16816,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16864,12 +16864,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -21252,7 +21252,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21267,11 +21267,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21280,12 +21280,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21300,7 +21300,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21315,11 +21315,11 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21328,12 +21328,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -22260,7 +22260,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22270,16 +22270,16 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22288,12 +22288,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22308,7 +22308,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22318,16 +22318,16 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22336,12 +22336,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7960,12 +7960,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,12 +8008,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Prospección Minera Distrito Pleito</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
+          <t>Prospección Minera Distrito Pleito</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10898,16 +10898,16 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>600</v>
+        <v>7300</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12391,11 +12391,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16702,16 +16702,16 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16750,16 +16750,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16816,12 +16816,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16864,12 +16864,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -21252,7 +21252,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21267,11 +21267,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21280,12 +21280,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21300,7 +21300,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21315,11 +21315,11 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21328,12 +21328,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -22260,7 +22260,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22270,16 +22270,16 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22288,12 +22288,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22308,7 +22308,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22318,16 +22318,16 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22336,12 +22336,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/09/2023</t>
+          <t>28/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>219</v>
+        <v>217000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>217000</v>
+        <v>64000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>120000</v>
+        <v>219</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7960,12 +7960,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,12 +8008,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
+          <t>Prospección Minera Distrito Pleito</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>600</v>
+        <v>7300</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Prospección Minera Distrito Pleito</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10898,16 +10898,16 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12391,11 +12391,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16702,16 +16702,16 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16750,16 +16750,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16803,11 +16803,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16816,12 +16816,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16864,12 +16864,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -21252,7 +21252,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21267,11 +21267,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21280,12 +21280,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21300,7 +21300,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21315,11 +21315,11 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21328,12 +21328,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -22260,7 +22260,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22270,16 +22270,16 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22288,12 +22288,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22308,7 +22308,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22318,16 +22318,16 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22336,12 +22336,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>219</v>
+        <v>217000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>217000</v>
+        <v>64000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>120000</v>
+        <v>219</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -8008,12 +8008,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,12 +8056,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
+          <t>Prospección Minera Distrito Pleito</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10898,16 +10898,16 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>600</v>
+        <v>7300</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Prospección Minera Distrito Pleito</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,16 +10946,16 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12391,11 +12391,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12439,11 +12439,11 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16750,16 +16750,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16798,16 +16798,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16864,12 +16864,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16912,12 +16912,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -21300,7 +21300,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21315,11 +21315,11 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21328,12 +21328,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21348,7 +21348,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21363,11 +21363,11 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21376,12 +21376,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -22308,7 +22308,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22318,16 +22318,16 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22336,12 +22336,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22356,7 +22356,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22366,16 +22366,16 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22384,12 +22384,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F84" t="n">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -8008,12 +8008,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,12 +8056,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Prospección Minera Distrito Pleito</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10898,16 +10898,16 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
+          <t>Prospección Minera Distrito Pleito</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,16 +10946,16 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>600</v>
+        <v>7300</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12391,11 +12391,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12439,11 +12439,11 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16750,16 +16750,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16798,16 +16798,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16864,12 +16864,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16912,12 +16912,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -21300,7 +21300,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21315,11 +21315,11 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21328,12 +21328,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21348,7 +21348,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21363,11 +21363,11 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21376,12 +21376,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -22308,7 +22308,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22318,16 +22318,16 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22336,12 +22336,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22356,7 +22356,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22366,16 +22366,16 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22384,12 +22384,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6823,7 +6823,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Total Sunpower El Pelícano Spa.</t>
+          <t>El Pelicano Solar Company SpA</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -8008,12 +8008,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,12 +8056,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Prospección Minera Distrito Pleito</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10898,16 +10898,16 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
+          <t>Prospección Minera Distrito Pleito</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,16 +10946,16 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>600</v>
+        <v>7300</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12391,11 +12391,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12439,11 +12439,11 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16750,16 +16750,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16798,16 +16798,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16851,11 +16851,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16864,12 +16864,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16912,12 +16912,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -21300,7 +21300,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21315,11 +21315,11 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21328,12 +21328,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21348,7 +21348,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21363,11 +21363,11 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21376,12 +21376,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -22308,7 +22308,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22318,16 +22318,16 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22336,12 +22336,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22356,7 +22356,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22366,16 +22366,16 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22384,12 +22384,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>219</v>
+        <v>217000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>217000</v>
+        <v>64000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>120000</v>
+        <v>219</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -8056,12 +8056,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,12 +8104,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
+          <t>Prospección Minera Distrito Pleito</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,16 +10946,16 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>600</v>
+        <v>7300</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Prospección Minera Distrito Pleito</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10994,16 +10994,16 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12439,11 +12439,11 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12487,11 +12487,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12500,12 +12500,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16798,16 +16798,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16846,16 +16846,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16912,12 +16912,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,11 +16947,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16960,12 +16960,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -18324,7 +18324,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Segundo Circuito 220 kV Línea Maitencillo - Cardones (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18334,16 +18334,16 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Guacolda S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18352,12 +18352,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1924188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -18372,7 +18372,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Segundo Circuito 220 kV Línea Maitencillo - Cardones (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18382,16 +18382,16 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Eléctrica Guacolda S.A.</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18400,12 +18400,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1924188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -21348,7 +21348,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21363,11 +21363,11 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21376,12 +21376,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21396,7 +21396,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21411,11 +21411,11 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21424,12 +21424,12 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -22356,7 +22356,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22366,16 +22366,16 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22384,12 +22384,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22404,7 +22404,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22414,16 +22414,16 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22432,12 +22432,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -8056,12 +8056,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,12 +8104,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Prospección Minera Distrito Pleito</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,16 +10946,16 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
+          <t>Prospección Minera Distrito Pleito</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10994,16 +10994,16 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>600</v>
+        <v>7300</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12439,11 +12439,11 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12487,11 +12487,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12500,12 +12500,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16798,16 +16798,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16846,16 +16846,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16899,11 +16899,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16912,12 +16912,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16947,11 +16947,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16960,12 +16960,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -18324,7 +18324,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Segundo Circuito 220 kV Línea Maitencillo - Cardones (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18334,16 +18334,16 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Eléctrica Guacolda S.A.</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18352,12 +18352,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1924188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -18372,7 +18372,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Segundo Circuito 220 kV Línea Maitencillo - Cardones (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18382,16 +18382,16 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Guacolda S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18400,12 +18400,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1924188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -21348,7 +21348,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21363,11 +21363,11 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21376,12 +21376,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21396,7 +21396,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21411,11 +21411,11 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21424,12 +21424,12 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -22356,7 +22356,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22366,16 +22366,16 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22384,12 +22384,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22404,7 +22404,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22414,16 +22414,16 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22432,12 +22432,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>219</v>
+        <v>217000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>217000</v>
+        <v>64000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>120000</v>
+        <v>219</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -8152,12 +8152,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,12 +8200,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
+          <t>Prospección Minera Distrito Pleito</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11042,16 +11042,16 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>600</v>
+        <v>7300</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Prospección Minera Distrito Pleito</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11090,16 +11090,16 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,11 +12535,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,11 +12583,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16894,16 +16894,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16942,16 +16942,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17008,12 +17008,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17056,12 +17056,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -18420,7 +18420,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Segundo Circuito 220 kV Línea Maitencillo - Cardones (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18430,16 +18430,16 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Guacolda S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18448,12 +18448,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1924188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18468,7 +18468,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Segundo Circuito 220 kV Línea Maitencillo - Cardones (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18478,16 +18478,16 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Eléctrica Guacolda S.A.</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18496,12 +18496,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1924188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -21444,7 +21444,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21459,11 +21459,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21472,12 +21472,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -21492,7 +21492,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21507,11 +21507,11 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F441" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -21520,12 +21520,12 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -22452,7 +22452,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22462,16 +22462,16 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22480,12 +22480,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22500,7 +22500,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22510,16 +22510,16 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22528,12 +22528,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Corinto Solar</t>
+          <t>Modificación a la posición de las estructuras T18 a T69 del Proyecto Nueva Línea 1x110 kV Maitencillo - Vallenar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Corinto Solar SpA</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>200000</v>
+        <v>150</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/11/2023</t>
+          <t>23/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160552681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160530905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación a la posición de las estructuras T18 a T69 del Proyecto Nueva Línea 1x110 kV Maitencillo - Vallenar</t>
+          <t>Parque Fotovoltaico Corinto Solar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>Corinto Solar SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>150</v>
+        <v>200000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17/11/2023</t>
+          <t>20/11/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160530905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160552681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -8152,12 +8152,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,12 +8200,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Prospección Minera Distrito Pleito</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11042,16 +11042,16 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
+          <t>Prospección Minera Distrito Pleito</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11090,16 +11090,16 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>600</v>
+        <v>7300</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,11 +12535,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,11 +12583,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16894,16 +16894,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16942,16 +16942,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17008,12 +17008,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17056,12 +17056,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -18420,7 +18420,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Segundo Circuito 220 kV Línea Maitencillo - Cardones (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18430,16 +18430,16 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Eléctrica Guacolda S.A.</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18448,12 +18448,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1924188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18468,7 +18468,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Segundo Circuito 220 kV Línea Maitencillo - Cardones (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18478,16 +18478,16 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Guacolda S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18496,12 +18496,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1924188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -21444,7 +21444,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21459,11 +21459,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21472,12 +21472,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -21492,7 +21492,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21507,11 +21507,11 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F441" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -21520,12 +21520,12 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -22452,7 +22452,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22462,16 +22462,16 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22480,12 +22480,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22500,7 +22500,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22510,16 +22510,16 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22528,12 +22528,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -8152,12 +8152,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,12 +8200,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Prospección Minera Distrito Pleito</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11042,16 +11042,16 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
+          <t>Prospección Minera Distrito Pleito</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11090,16 +11090,16 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>600</v>
+        <v>7300</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,11 +12535,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,11 +12583,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16894,16 +16894,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16942,16 +16942,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17008,12 +17008,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17056,12 +17056,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -18420,7 +18420,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Segundo Circuito 220 kV Línea Maitencillo - Cardones (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18430,16 +18430,16 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Eléctrica Guacolda S.A.</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18448,12 +18448,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1924188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18468,7 +18468,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Segundo Circuito 220 kV Línea Maitencillo - Cardones (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18478,16 +18478,16 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Guacolda S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18496,12 +18496,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1924188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -21444,7 +21444,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21459,11 +21459,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21472,12 +21472,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -21492,7 +21492,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21507,11 +21507,11 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F441" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -21520,12 +21520,12 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -22452,7 +22452,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22462,16 +22462,16 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22480,12 +22480,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22500,7 +22500,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22510,16 +22510,16 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22528,12 +22528,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación a la posición de las estructuras T18 a T69 del Proyecto Nueva Línea 1x110 kV Maitencillo - Vallenar</t>
+          <t>Parque Fotovoltaico Corinto Solar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>Corinto Solar SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>150</v>
+        <v>200000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160530905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160552681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Corinto Solar</t>
+          <t>Modificación a la posición de las estructuras T18 a T69 del Proyecto Nueva Línea 1x110 kV Maitencillo - Vallenar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Corinto Solar SpA</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>200000</v>
+        <v>150</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/11/2023</t>
+          <t>23/11/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160552681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160530905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>219</v>
+        <v>217000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>217000</v>
+        <v>64000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>120000</v>
+        <v>219</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -8152,12 +8152,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,12 +8200,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
+          <t>Prospección Minera Distrito Pleito</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11042,16 +11042,16 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>600</v>
+        <v>7300</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Prospección Minera Distrito Pleito</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11090,16 +11090,16 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,11 +12535,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,11 +12583,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16894,16 +16894,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16942,16 +16942,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17008,12 +17008,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17056,12 +17056,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -18420,7 +18420,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Segundo Circuito 220 kV Línea Maitencillo - Cardones (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18430,16 +18430,16 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Guacolda S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18448,12 +18448,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1924188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18468,7 +18468,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Segundo Circuito 220 kV Línea Maitencillo - Cardones (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18478,16 +18478,16 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Eléctrica Guacolda S.A.</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18496,12 +18496,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1924188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -21444,7 +21444,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21459,11 +21459,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21472,12 +21472,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -21492,7 +21492,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21507,11 +21507,11 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F441" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -21520,12 +21520,12 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -22452,7 +22452,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22462,16 +22462,16 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22480,12 +22480,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22500,7 +22500,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22510,16 +22510,16 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22528,12 +22528,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">

--- a/data/Vallenar.xlsx
+++ b/data/Vallenar.xlsx
@@ -1028,7 +1028,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>DIA Divisadero</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Avenir El Divisadero SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>217000</v>
+        <v>219</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Parque Solar Abasol</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>ABASOL SpA</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>DIA Divisadero</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Avenir El Divisadero SpA</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>64000</v>
+        <v>217000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Solar Abasol</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>ABASOL SpA</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>219</v>
+        <v>120000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128956271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -8152,12 +8152,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>El Romero Solar</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Avenir El Romero SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>450000</v>
+        <v>25000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,12 +8200,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>El Romero Solar</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Avenir El Romero SpA</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>25000</v>
+        <v>450000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8278362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Prospección Minera Distrito Pleito</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11042,16 +11042,16 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO REGIONES ANTOFAGASTA, ATACAMA Y COQUIMBO</t>
+          <t>Prospección Minera Distrito Pleito</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11090,16 +11090,16 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>600</v>
+        <v>7300</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5872680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,11 +12535,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,11 +12583,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16894,16 +16894,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>1650</v>
+        <v>12000</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Ampliación III Proyecto Dos Amigos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16942,16 +16942,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>12000</v>
+        <v>1650</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2813117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16995,11 +16995,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Transportes Bencina y Cía. Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17008,12 +17008,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas en la III Región (e-seia)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17043,11 +17043,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bencina y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17056,12 +17056,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2795884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -18420,7 +18420,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Segundo Circuito 220 kV Línea Maitencillo - Cardones (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18430,16 +18430,16 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Eléctrica Guacolda S.A.</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18448,12 +18448,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1924188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18468,7 +18468,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Segundo Circuito 220 kV Línea Maitencillo - Cardones (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18478,16 +18478,16 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Guacolda S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18496,12 +18496,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1924188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -21444,7 +21444,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21459,11 +21459,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21472,12 +21472,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -21492,7 +21492,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21507,11 +21507,11 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F441" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -21520,12 +21520,12 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -22452,7 +22452,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
+          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22462,16 +22462,16 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22480,12 +22480,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22500,7 +22500,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Ferrocarril en las Regiones II y III</t>
+          <t>Diseño Ampliación Sistema de Alcantarillado Sector El Olivar de Vallenar</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22510,16 +22510,16 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (III Región)</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22528,12 +22528,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
